--- a/Data/EC/NIT-9003881768.xlsx
+++ b/Data/EC/NIT-9003881768.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B9AFB9-D9A8-46D3-8388-5B263AA77F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AAC256-56C8-400C-AD2D-F6C9D93CADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8147E45C-D256-4517-98E2-0E8DCF7BE589}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF26FFA2-A1D4-408C-85FE-8C739AB79073}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="112">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,265 +65,280 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047389847</t>
+  </si>
+  <si>
+    <t>ALEXANDER DE JESUS REVOLLO CARREAZO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1143352686</t>
+  </si>
+  <si>
+    <t>FABIAN EDUARDO VOGEL GARCIA</t>
+  </si>
+  <si>
     <t>1143355449</t>
   </si>
   <si>
     <t>LAURA STEFANY JIMENEZ MONROY</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1143352686</t>
-  </si>
-  <si>
-    <t>FABIAN EDUARDO VOGEL GARCIA</t>
-  </si>
-  <si>
-    <t>1047389847</t>
-  </si>
-  <si>
-    <t>ALEXANDER DE JESUS REVOLLO CARREAZO</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
+    <t>1235045551</t>
+  </si>
+  <si>
+    <t>WILLY ALEXANDER BURGOS MORA</t>
+  </si>
+  <si>
+    <t>1065868491</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO SARMIENTO QUINTERO</t>
   </si>
   <si>
     <t>20237389</t>
   </si>
   <si>
     <t>BENJAMIN DE LA ROSA AVILA</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -737,7 +752,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62FEC86-216A-A99C-E823-48B8F88C1ACB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60007ED-22B7-8C03-D2BA-51EDC783C603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1103,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33809B1-C098-42C7-906B-27066FADC85C}">
-  <dimension ref="B2:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E64AF3-3375-452C-B901-444A69BB9F63}">
+  <dimension ref="B2:J162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1113,7 +1128,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1173,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1190,12 +1205,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5763200</v>
+        <v>12193390</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1206,17 +1221,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1243,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1266,10 +1281,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>73467</v>
+        <v>72000</v>
       </c>
       <c r="G16" s="18">
-        <v>5570657</v>
+        <v>1800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1280,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>55733</v>
+        <v>72000</v>
       </c>
       <c r="G17" s="18">
-        <v>2200000</v>
+        <v>1800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1303,16 +1318,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>45600</v>
+        <v>72000</v>
       </c>
       <c r="G18" s="18">
         <v>1800000</v>
@@ -1326,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>21600</v>
+        <v>72000</v>
       </c>
       <c r="G19" s="18">
         <v>1800000</v>
@@ -1349,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>72000</v>
@@ -1372,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>72000</v>
@@ -1395,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>72000</v>
@@ -1418,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>72000</v>
@@ -1441,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>72000</v>
@@ -1464,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>72000</v>
@@ -1487,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>72000</v>
@@ -1510,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>72000</v>
@@ -1533,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>72000</v>
@@ -1556,13 +1571,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>72000</v>
@@ -1579,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>22800</v>
+        <v>72000</v>
       </c>
       <c r="G30" s="18">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1602,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>72000</v>
@@ -1625,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>72000</v>
@@ -1648,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>72000</v>
@@ -1671,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>72000</v>
@@ -1694,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>72000</v>
@@ -1717,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>72000</v>
@@ -1740,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>72000</v>
@@ -1763,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>72000</v>
@@ -1786,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>72000</v>
@@ -1809,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>72000</v>
@@ -1832,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>72000</v>
@@ -1855,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>72000</v>
@@ -1878,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>72000</v>
@@ -1901,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>72000</v>
@@ -1924,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>72000</v>
@@ -1947,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>72000</v>
@@ -1970,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>72000</v>
@@ -1993,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>72000</v>
@@ -2016,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>72000</v>
@@ -2039,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>72000</v>
@@ -2062,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>72000</v>
@@ -2085,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>72000</v>
@@ -2108,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>72000</v>
@@ -2131,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>72000</v>
@@ -2154,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>72000</v>
@@ -2177,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>72000</v>
@@ -2200,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>72000</v>
@@ -2223,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>72000</v>
@@ -2246,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>72000</v>
@@ -2269,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>72000</v>
@@ -2292,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>72000</v>
@@ -2315,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>72000</v>
@@ -2338,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>72000</v>
@@ -2361,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>72000</v>
@@ -2384,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>72000</v>
@@ -2407,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>72000</v>
@@ -2430,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>72000</v>
@@ -2453,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>72000</v>
@@ -2476,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>72000</v>
@@ -2499,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>72000</v>
@@ -2522,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>72000</v>
@@ -2545,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>72000</v>
@@ -2568,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>72000</v>
@@ -2591,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>72000</v>
@@ -2614,13 +2629,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>72000</v>
@@ -2637,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>72000</v>
@@ -2660,13 +2675,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>72000</v>
@@ -2683,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>72000</v>
@@ -2706,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>72000</v>
@@ -2729,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>72000</v>
@@ -2752,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>72000</v>
@@ -2775,13 +2790,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>72000</v>
@@ -2798,13 +2813,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>72000</v>
@@ -2821,13 +2836,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>72000</v>
@@ -2844,13 +2859,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
         <v>72000</v>
@@ -2867,13 +2882,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
         <v>72000</v>
@@ -2890,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>72000</v>
@@ -2913,13 +2928,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
         <v>72000</v>
@@ -2936,13 +2951,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
         <v>72000</v>
@@ -2959,13 +2974,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>72000</v>
@@ -2982,13 +2997,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
         <v>72000</v>
@@ -3005,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
         <v>72000</v>
@@ -3028,13 +3043,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
         <v>72000</v>
@@ -3051,16 +3066,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>72000</v>
+        <v>21600</v>
       </c>
       <c r="G94" s="18">
         <v>1800000</v>
@@ -3074,16 +3089,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>72000</v>
+        <v>45600</v>
       </c>
       <c r="G95" s="18">
         <v>1800000</v>
@@ -3097,75 +3112,1432 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="18">
-        <v>72000</v>
+        <v>55733</v>
       </c>
       <c r="G96" s="18">
-        <v>1800000</v>
+        <v>2200000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="22" t="s">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="18">
+        <v>73467</v>
+      </c>
+      <c r="G97" s="18">
+        <v>5570657</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="18">
+        <v>140000</v>
+      </c>
+      <c r="G98" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="18">
+        <v>140000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="18">
+        <v>140000</v>
+      </c>
+      <c r="G100" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="18">
+        <v>86477</v>
+      </c>
+      <c r="G101" s="18">
+        <v>3500000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G102" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G103" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G104" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="F105" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G105" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F97" s="24">
-        <v>72000</v>
-      </c>
-      <c r="G97" s="24">
-        <v>1800000</v>
-      </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="F106" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G106" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G107" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G108" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G109" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G110" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G111" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G112" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G113" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G114" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G115" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G116" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G117" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G118" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G119" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G120" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G121" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G122" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G123" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G124" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G125" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G126" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G127" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G128" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G129" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G130" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G131" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G132" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G133" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G134" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G135" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G136" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G137" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G138" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F139" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G139" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G140" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G141" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F142" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G142" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F143" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G143" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G144" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G145" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="18">
+        <v>111971</v>
+      </c>
+      <c r="G146" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F147" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G147" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G148" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F149" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G149" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G150" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F151" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G151" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F152" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G152" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F153" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G153" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="18">
+        <v>97954</v>
+      </c>
+      <c r="G154" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F155" s="18">
+        <v>29386</v>
+      </c>
+      <c r="G155" s="18">
+        <v>2799270</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" s="24">
+        <v>22800</v>
+      </c>
+      <c r="G156" s="24">
+        <v>900000</v>
+      </c>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="26"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="H161" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="H162" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="H161:J161"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003881768.xlsx
+++ b/Data/EC/NIT-9003881768.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AAC256-56C8-400C-AD2D-F6C9D93CADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4824AB0E-32D3-4FEB-8644-825674BB472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF26FFA2-A1D4-408C-85FE-8C739AB79073}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1C092C8-D60A-445C-A877-6C3FB2689DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="109">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,274 +71,265 @@
     <t>ALEXANDER DE JESUS REVOLLO CARREAZO</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1143352686</t>
+  </si>
+  <si>
+    <t>FABIAN EDUARDO VOGEL GARCIA</t>
+  </si>
+  <si>
+    <t>1143355449</t>
+  </si>
+  <si>
+    <t>LAURA STEFANY JIMENEZ MONROY</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>20237389</t>
+  </si>
+  <si>
+    <t>BENJAMIN DE LA ROSA AVILA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1143352686</t>
-  </si>
-  <si>
-    <t>FABIAN EDUARDO VOGEL GARCIA</t>
-  </si>
-  <si>
-    <t>1143355449</t>
-  </si>
-  <si>
-    <t>LAURA STEFANY JIMENEZ MONROY</t>
-  </si>
-  <si>
-    <t>1235045551</t>
-  </si>
-  <si>
-    <t>WILLY ALEXANDER BURGOS MORA</t>
-  </si>
-  <si>
-    <t>1065868491</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO SARMIENTO QUINTERO</t>
-  </si>
-  <si>
-    <t>20237389</t>
-  </si>
-  <si>
-    <t>BENJAMIN DE LA ROSA AVILA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -437,7 +428,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -450,9 +443,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -652,23 +643,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,10 +687,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +743,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60007ED-22B7-8C03-D2BA-51EDC783C603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F17DA1-7BE9-DD44-5528-CC6F32E18802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,8 +1094,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E64AF3-3375-452C-B901-444A69BB9F63}">
-  <dimension ref="B2:J162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6343A9DB-372C-444F-A6F9-B704F32DE583}">
+  <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1128,7 +1119,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1173,7 +1164,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1205,12 +1196,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12193390</v>
+        <v>5907200</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1221,17 +1212,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1258,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1281,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>72000</v>
+        <v>45600</v>
       </c>
       <c r="G16" s="18">
         <v>1800000</v>
@@ -1295,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>72000</v>
+        <v>55733</v>
       </c>
       <c r="G17" s="18">
-        <v>1800000</v>
+        <v>2200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1318,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>72000</v>
+        <v>73467</v>
       </c>
       <c r="G18" s="18">
-        <v>1800000</v>
+        <v>5860331</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1347,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>72000</v>
+        <v>21600</v>
       </c>
       <c r="G19" s="18">
         <v>1800000</v>
@@ -1370,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>72000</v>
@@ -1393,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>72000</v>
@@ -1416,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>72000</v>
@@ -1439,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>72000</v>
@@ -1462,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>72000</v>
@@ -1485,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>72000</v>
@@ -1508,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>72000</v>
@@ -1531,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>72000</v>
@@ -1554,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>72000</v>
@@ -1577,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>72000</v>
@@ -1594,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>72000</v>
+        <v>22800</v>
       </c>
       <c r="G30" s="18">
-        <v>1800000</v>
+        <v>900000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1623,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>72000</v>
@@ -1646,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>72000</v>
@@ -1669,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>72000</v>
@@ -1692,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>72000</v>
@@ -1715,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>72000</v>
@@ -1738,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>72000</v>
@@ -1761,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>72000</v>
@@ -1784,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>72000</v>
@@ -1807,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>72000</v>
@@ -1830,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>72000</v>
@@ -1853,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>72000</v>
@@ -1876,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>72000</v>
@@ -1899,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>72000</v>
@@ -1922,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>72000</v>
@@ -1945,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>72000</v>
@@ -1968,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>72000</v>
@@ -1991,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>72000</v>
@@ -2014,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>72000</v>
@@ -2037,7 +2028,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>72000</v>
@@ -2060,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>72000</v>
@@ -2083,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>72000</v>
@@ -2106,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>72000</v>
@@ -2129,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>72000</v>
@@ -2152,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>72000</v>
@@ -2175,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>72000</v>
@@ -2198,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>72000</v>
@@ -2221,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
         <v>72000</v>
@@ -2244,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
         <v>72000</v>
@@ -2267,7 +2258,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>72000</v>
@@ -2290,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
         <v>72000</v>
@@ -2313,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
         <v>72000</v>
@@ -2336,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
         <v>72000</v>
@@ -2359,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
         <v>72000</v>
@@ -2382,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F64" s="18">
         <v>72000</v>
@@ -2405,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
         <v>72000</v>
@@ -2428,7 +2419,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F66" s="18">
         <v>72000</v>
@@ -2451,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
         <v>72000</v>
@@ -2474,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
         <v>72000</v>
@@ -2497,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
         <v>72000</v>
@@ -2520,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F70" s="18">
         <v>72000</v>
@@ -2543,7 +2534,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F71" s="18">
         <v>72000</v>
@@ -2566,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
         <v>72000</v>
@@ -2589,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F73" s="18">
         <v>72000</v>
@@ -2612,7 +2603,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F74" s="18">
         <v>72000</v>
@@ -2635,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F75" s="18">
         <v>72000</v>
@@ -2658,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>72000</v>
@@ -2681,7 +2672,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F77" s="18">
         <v>72000</v>
@@ -2704,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
         <v>72000</v>
@@ -2727,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
         <v>72000</v>
@@ -2750,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>72000</v>
@@ -2773,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>72000</v>
@@ -2796,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>72000</v>
@@ -2819,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>72000</v>
@@ -2842,7 +2833,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
         <v>72000</v>
@@ -2865,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>72000</v>
@@ -2888,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>72000</v>
@@ -2911,7 +2902,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
         <v>72000</v>
@@ -2934,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
         <v>72000</v>
@@ -2957,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F89" s="18">
         <v>72000</v>
@@ -2980,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18">
         <v>72000</v>
@@ -3003,7 +2994,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F91" s="18">
         <v>72000</v>
@@ -3026,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F92" s="18">
         <v>72000</v>
@@ -3049,7 +3040,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F93" s="18">
         <v>72000</v>
@@ -3072,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F94" s="18">
-        <v>21600</v>
+        <v>72000</v>
       </c>
       <c r="G94" s="18">
         <v>1800000</v>
@@ -3095,10 +3086,10 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F95" s="18">
-        <v>45600</v>
+        <v>72000</v>
       </c>
       <c r="G95" s="18">
         <v>1800000</v>
@@ -3112,19 +3103,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F96" s="18">
-        <v>55733</v>
+        <v>72000</v>
       </c>
       <c r="G96" s="18">
-        <v>2200000</v>
+        <v>1800000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3135,19 +3126,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F97" s="18">
-        <v>73467</v>
+        <v>72000</v>
       </c>
       <c r="G97" s="18">
-        <v>5570657</v>
+        <v>1800000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3158,1386 +3149,75 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F98" s="18">
-        <v>140000</v>
+        <v>72000</v>
       </c>
       <c r="G98" s="18">
-        <v>3500000</v>
+        <v>1800000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="18">
-        <v>140000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>3500000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="18">
-        <v>140000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>3500000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F101" s="18">
-        <v>86477</v>
-      </c>
-      <c r="G101" s="18">
-        <v>3500000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
+      <c r="B99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G102" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G103" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F99" s="24">
+        <v>72000</v>
+      </c>
+      <c r="G99" s="24">
+        <v>1800000</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G104" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="B104" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="H104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G105" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G106" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G107" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G108" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G109" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G110" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G111" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G112" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G113" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G114" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F115" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G115" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G116" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G117" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G118" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F119" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G119" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G120" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G121" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F122" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G122" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F123" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G123" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F124" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G124" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G125" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F126" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G126" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F127" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G127" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F128" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G128" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F129" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G129" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F130" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G130" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F131" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G131" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F132" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G132" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F133" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G133" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G134" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F135" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G135" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F136" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G136" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F137" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G137" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F138" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G138" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F139" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G139" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F140" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G140" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G141" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F142" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G142" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F143" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G143" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F144" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G144" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F145" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G145" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F146" s="18">
-        <v>111971</v>
-      </c>
-      <c r="G146" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F147" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G147" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F148" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G148" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F149" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G149" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F150" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G150" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F151" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G151" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F152" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G152" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F153" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G153" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F154" s="18">
-        <v>97954</v>
-      </c>
-      <c r="G154" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F155" s="18">
-        <v>29386</v>
-      </c>
-      <c r="G155" s="18">
-        <v>2799270</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F156" s="24">
-        <v>22800</v>
-      </c>
-      <c r="G156" s="24">
-        <v>900000</v>
-      </c>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="26"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="32"/>
-      <c r="H161" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C162" s="32"/>
-      <c r="H162" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="B105" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
